--- a/Data/raw_surv_data.xlsx
+++ b/Data/raw_surv_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matthewsasaki/Desktop/Lab_Projects/01_Small_projects/freshwater_choice/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0E1431C-00C3-0948-A68C-B16549E883FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{337D7839-A485-454F-8B83-AB9C8841963C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="15120" windowHeight="18880" xr2:uid="{8320B239-817B-2D40-83A6-DE83587F0EE7}"/>
   </bookViews>
@@ -464,8 +464,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8949BF81-7D7A-4643-97D8-DBE58FB94094}">
   <dimension ref="A1:R36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="84" workbookViewId="0">
-      <selection activeCell="K29" sqref="K29"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="84" workbookViewId="0">
+      <selection activeCell="Q32" sqref="Q32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -560,6 +560,21 @@
       <c r="K2">
         <v>0</v>
       </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
@@ -595,6 +610,21 @@
       <c r="K3">
         <v>0</v>
       </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
@@ -630,6 +660,21 @@
       <c r="K4">
         <v>0</v>
       </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
@@ -665,6 +710,21 @@
       <c r="K5">
         <v>1</v>
       </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>1</v>
+      </c>
+      <c r="N5">
+        <v>1</v>
+      </c>
+      <c r="O5">
+        <v>1</v>
+      </c>
+      <c r="P5">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
@@ -700,6 +760,21 @@
       <c r="K6">
         <v>1</v>
       </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>1</v>
+      </c>
+      <c r="N6">
+        <v>1</v>
+      </c>
+      <c r="O6">
+        <v>1</v>
+      </c>
+      <c r="P6">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
@@ -735,6 +810,21 @@
       <c r="K7">
         <v>1</v>
       </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>1</v>
+      </c>
+      <c r="N7">
+        <v>1</v>
+      </c>
+      <c r="O7">
+        <v>1</v>
+      </c>
+      <c r="P7">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
@@ -770,6 +860,21 @@
       <c r="K8">
         <v>1</v>
       </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>1</v>
+      </c>
+      <c r="N8">
+        <v>1</v>
+      </c>
+      <c r="O8">
+        <v>1</v>
+      </c>
+      <c r="P8">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
@@ -805,6 +910,21 @@
       <c r="K9">
         <v>1</v>
       </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>1</v>
+      </c>
+      <c r="N9">
+        <v>1</v>
+      </c>
+      <c r="O9">
+        <v>1</v>
+      </c>
+      <c r="P9">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
@@ -840,6 +960,21 @@
       <c r="K10">
         <v>1</v>
       </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>1</v>
+      </c>
+      <c r="N10">
+        <v>1</v>
+      </c>
+      <c r="O10">
+        <v>1</v>
+      </c>
+      <c r="P10">
+        <v>1</v>
+      </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
@@ -875,6 +1010,21 @@
       <c r="K11">
         <v>1</v>
       </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>1</v>
+      </c>
+      <c r="N11">
+        <v>1</v>
+      </c>
+      <c r="O11">
+        <v>1</v>
+      </c>
+      <c r="P11">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
@@ -910,6 +1060,21 @@
       <c r="K12">
         <v>1</v>
       </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>1</v>
+      </c>
+      <c r="N12">
+        <v>1</v>
+      </c>
+      <c r="O12">
+        <v>1</v>
+      </c>
+      <c r="P12">
+        <v>1</v>
+      </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
@@ -945,6 +1110,21 @@
       <c r="K13">
         <v>1</v>
       </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>1</v>
+      </c>
+      <c r="N13">
+        <v>1</v>
+      </c>
+      <c r="O13">
+        <v>1</v>
+      </c>
+      <c r="P13">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
@@ -980,6 +1160,21 @@
       <c r="K14">
         <v>1</v>
       </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>1</v>
+      </c>
+      <c r="N14">
+        <v>1</v>
+      </c>
+      <c r="O14">
+        <v>1</v>
+      </c>
+      <c r="P14">
+        <v>1</v>
+      </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
@@ -1015,6 +1210,21 @@
       <c r="K15">
         <v>1</v>
       </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>1</v>
+      </c>
+      <c r="N15">
+        <v>1</v>
+      </c>
+      <c r="O15">
+        <v>1</v>
+      </c>
+      <c r="P15">
+        <v>1</v>
+      </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
@@ -1050,8 +1260,23 @@
       <c r="K16">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>1</v>
+      </c>
+      <c r="N16">
+        <v>1</v>
+      </c>
+      <c r="O16">
+        <v>1</v>
+      </c>
+      <c r="P16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>21</v>
       </c>
@@ -1085,8 +1310,23 @@
       <c r="K17">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>1</v>
+      </c>
+      <c r="N17">
+        <v>1</v>
+      </c>
+      <c r="O17">
+        <v>1</v>
+      </c>
+      <c r="P17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>21</v>
       </c>
@@ -1120,8 +1360,23 @@
       <c r="K18">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>1</v>
+      </c>
+      <c r="N18">
+        <v>1</v>
+      </c>
+      <c r="O18">
+        <v>1</v>
+      </c>
+      <c r="P18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>21</v>
       </c>
@@ -1155,8 +1410,23 @@
       <c r="K19">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>1</v>
+      </c>
+      <c r="N19">
+        <v>1</v>
+      </c>
+      <c r="O19">
+        <v>1</v>
+      </c>
+      <c r="P19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>21</v>
       </c>
@@ -1190,8 +1460,23 @@
       <c r="K20">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>1</v>
+      </c>
+      <c r="N20">
+        <v>1</v>
+      </c>
+      <c r="O20">
+        <v>1</v>
+      </c>
+      <c r="P20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>21</v>
       </c>
@@ -1225,8 +1510,23 @@
       <c r="K21">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>1</v>
+      </c>
+      <c r="N21">
+        <v>1</v>
+      </c>
+      <c r="O21">
+        <v>1</v>
+      </c>
+      <c r="P21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -1260,8 +1560,23 @@
       <c r="K22">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>1</v>
+      </c>
+      <c r="N22">
+        <v>1</v>
+      </c>
+      <c r="O22">
+        <v>1</v>
+      </c>
+      <c r="P22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -1295,8 +1610,23 @@
       <c r="K23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -1330,8 +1660,23 @@
       <c r="K24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>21</v>
       </c>
@@ -1365,8 +1710,23 @@
       <c r="K25">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>21</v>
       </c>
@@ -1400,8 +1760,23 @@
       <c r="K26">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L26">
+        <v>0</v>
+      </c>
+      <c r="M26">
+        <v>0</v>
+      </c>
+      <c r="N26">
+        <v>0</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+      <c r="P26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>21</v>
       </c>
@@ -1435,8 +1810,23 @@
       <c r="K27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L27">
+        <v>0</v>
+      </c>
+      <c r="M27">
+        <v>0</v>
+      </c>
+      <c r="N27">
+        <v>0</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+      <c r="P27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>21</v>
       </c>
@@ -1470,8 +1860,23 @@
       <c r="K28">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>1</v>
+      </c>
+      <c r="N28">
+        <v>1</v>
+      </c>
+      <c r="O28">
+        <v>1</v>
+      </c>
+      <c r="P28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>22</v>
       </c>
@@ -1499,8 +1904,23 @@
       <c r="I29">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J29">
+        <v>1</v>
+      </c>
+      <c r="K29">
+        <v>1</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>1</v>
+      </c>
+      <c r="N29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>22</v>
       </c>
@@ -1528,8 +1948,23 @@
       <c r="I30">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J30">
+        <v>1</v>
+      </c>
+      <c r="K30">
+        <v>1</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>1</v>
+      </c>
+      <c r="N30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>22</v>
       </c>
@@ -1557,8 +1992,23 @@
       <c r="I31">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J31">
+        <v>1</v>
+      </c>
+      <c r="K31">
+        <v>1</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>1</v>
+      </c>
+      <c r="N31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>22</v>
       </c>
@@ -1586,8 +2036,23 @@
       <c r="I32">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J32">
+        <v>1</v>
+      </c>
+      <c r="K32">
+        <v>1</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>1</v>
+      </c>
+      <c r="N32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>22</v>
       </c>
@@ -1615,8 +2080,23 @@
       <c r="I33">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J33">
+        <v>1</v>
+      </c>
+      <c r="K33">
+        <v>1</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>1</v>
+      </c>
+      <c r="N33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>22</v>
       </c>
@@ -1644,8 +2124,23 @@
       <c r="I34">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J34">
+        <v>1</v>
+      </c>
+      <c r="K34">
+        <v>1</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>1</v>
+      </c>
+      <c r="N34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>22</v>
       </c>
@@ -1673,8 +2168,23 @@
       <c r="I35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J35">
+        <v>0</v>
+      </c>
+      <c r="K35">
+        <v>0</v>
+      </c>
+      <c r="L35">
+        <v>0</v>
+      </c>
+      <c r="M35">
+        <v>0</v>
+      </c>
+      <c r="N35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>22</v>
       </c>
@@ -1700,6 +2210,21 @@
         <v>0</v>
       </c>
       <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>0</v>
+      </c>
+      <c r="K36">
+        <v>0</v>
+      </c>
+      <c r="L36">
+        <v>0</v>
+      </c>
+      <c r="M36">
+        <v>0</v>
+      </c>
+      <c r="N36">
         <v>0</v>
       </c>
     </row>

--- a/Data/raw_surv_data.xlsx
+++ b/Data/raw_surv_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matthewsasaki/Desktop/Lab_Projects/01_Small_projects/freshwater_choice/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{337D7839-A485-454F-8B83-AB9C8841963C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B84B887-EEDD-4E48-BF46-2726CE176E56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="15120" windowHeight="18880" xr2:uid="{8320B239-817B-2D40-83A6-DE83587F0EE7}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="29">
   <si>
     <t>exp_rep</t>
   </si>
@@ -105,6 +105,24 @@
   </si>
   <si>
     <t>F</t>
+  </si>
+  <si>
+    <t>day15</t>
+  </si>
+  <si>
+    <t>day16</t>
+  </si>
+  <si>
+    <t>day17</t>
+  </si>
+  <si>
+    <t>day18</t>
+  </si>
+  <si>
+    <t>day19</t>
+  </si>
+  <si>
+    <t>day20</t>
   </si>
 </sst>
 </file>
@@ -462,15 +480,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8949BF81-7D7A-4643-97D8-DBE58FB94094}">
-  <dimension ref="A1:R36"/>
+  <dimension ref="A1:X36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="84" workbookViewId="0">
-      <selection activeCell="Q32" sqref="Q32"/>
+    <sheetView tabSelected="1" topLeftCell="R1" zoomScale="84" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19:XFD19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -525,8 +543,26 @@
       <c r="R1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S1" t="s">
+        <v>23</v>
+      </c>
+      <c r="T1" t="s">
+        <v>24</v>
+      </c>
+      <c r="U1" t="s">
+        <v>25</v>
+      </c>
+      <c r="V1" t="s">
+        <v>26</v>
+      </c>
+      <c r="W1" t="s">
+        <v>27</v>
+      </c>
+      <c r="X1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>21</v>
       </c>
@@ -575,8 +611,32 @@
       <c r="P2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
+      <c r="U2">
+        <v>0</v>
+      </c>
+      <c r="V2">
+        <v>0</v>
+      </c>
+      <c r="W2">
+        <v>0</v>
+      </c>
+      <c r="X2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>21</v>
       </c>
@@ -625,8 +685,32 @@
       <c r="P3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
+      <c r="U3">
+        <v>0</v>
+      </c>
+      <c r="V3">
+        <v>0</v>
+      </c>
+      <c r="W3">
+        <v>0</v>
+      </c>
+      <c r="X3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>21</v>
       </c>
@@ -675,8 +759,32 @@
       <c r="P4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <v>0</v>
+      </c>
+      <c r="V4">
+        <v>0</v>
+      </c>
+      <c r="W4">
+        <v>0</v>
+      </c>
+      <c r="X4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>21</v>
       </c>
@@ -725,8 +833,32 @@
       <c r="P5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="Q5">
+        <v>1</v>
+      </c>
+      <c r="R5">
+        <v>1</v>
+      </c>
+      <c r="S5">
+        <v>1</v>
+      </c>
+      <c r="T5">
+        <v>1</v>
+      </c>
+      <c r="U5">
+        <v>1</v>
+      </c>
+      <c r="V5">
+        <v>1</v>
+      </c>
+      <c r="W5">
+        <v>1</v>
+      </c>
+      <c r="X5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -775,8 +907,32 @@
       <c r="P6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="Q6">
+        <v>1</v>
+      </c>
+      <c r="R6">
+        <v>1</v>
+      </c>
+      <c r="S6">
+        <v>1</v>
+      </c>
+      <c r="T6">
+        <v>1</v>
+      </c>
+      <c r="U6">
+        <v>1</v>
+      </c>
+      <c r="V6">
+        <v>1</v>
+      </c>
+      <c r="W6">
+        <v>1</v>
+      </c>
+      <c r="X6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -825,8 +981,32 @@
       <c r="P7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="Q7">
+        <v>1</v>
+      </c>
+      <c r="R7">
+        <v>1</v>
+      </c>
+      <c r="S7">
+        <v>1</v>
+      </c>
+      <c r="T7">
+        <v>1</v>
+      </c>
+      <c r="U7">
+        <v>1</v>
+      </c>
+      <c r="V7">
+        <v>1</v>
+      </c>
+      <c r="W7">
+        <v>1</v>
+      </c>
+      <c r="X7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>21</v>
       </c>
@@ -875,8 +1055,32 @@
       <c r="P8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="Q8">
+        <v>1</v>
+      </c>
+      <c r="R8">
+        <v>1</v>
+      </c>
+      <c r="S8">
+        <v>1</v>
+      </c>
+      <c r="T8">
+        <v>1</v>
+      </c>
+      <c r="U8">
+        <v>1</v>
+      </c>
+      <c r="V8">
+        <v>1</v>
+      </c>
+      <c r="W8">
+        <v>1</v>
+      </c>
+      <c r="X8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>21</v>
       </c>
@@ -925,8 +1129,32 @@
       <c r="P9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="Q9">
+        <v>1</v>
+      </c>
+      <c r="R9">
+        <v>1</v>
+      </c>
+      <c r="S9">
+        <v>1</v>
+      </c>
+      <c r="T9">
+        <v>1</v>
+      </c>
+      <c r="U9">
+        <v>1</v>
+      </c>
+      <c r="V9">
+        <v>1</v>
+      </c>
+      <c r="W9">
+        <v>1</v>
+      </c>
+      <c r="X9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>21</v>
       </c>
@@ -975,8 +1203,32 @@
       <c r="P10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="Q10">
+        <v>1</v>
+      </c>
+      <c r="R10">
+        <v>1</v>
+      </c>
+      <c r="S10">
+        <v>1</v>
+      </c>
+      <c r="T10">
+        <v>1</v>
+      </c>
+      <c r="U10">
+        <v>1</v>
+      </c>
+      <c r="V10">
+        <v>1</v>
+      </c>
+      <c r="W10">
+        <v>1</v>
+      </c>
+      <c r="X10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -1025,8 +1277,32 @@
       <c r="P11">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="Q11">
+        <v>1</v>
+      </c>
+      <c r="R11">
+        <v>1</v>
+      </c>
+      <c r="S11">
+        <v>1</v>
+      </c>
+      <c r="T11">
+        <v>1</v>
+      </c>
+      <c r="U11">
+        <v>1</v>
+      </c>
+      <c r="V11">
+        <v>1</v>
+      </c>
+      <c r="W11">
+        <v>1</v>
+      </c>
+      <c r="X11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>21</v>
       </c>
@@ -1075,8 +1351,32 @@
       <c r="P12">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="Q12">
+        <v>1</v>
+      </c>
+      <c r="R12">
+        <v>1</v>
+      </c>
+      <c r="S12">
+        <v>1</v>
+      </c>
+      <c r="T12">
+        <v>1</v>
+      </c>
+      <c r="U12">
+        <v>1</v>
+      </c>
+      <c r="V12">
+        <v>1</v>
+      </c>
+      <c r="W12">
+        <v>1</v>
+      </c>
+      <c r="X12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>21</v>
       </c>
@@ -1125,8 +1425,32 @@
       <c r="P13">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="Q13">
+        <v>1</v>
+      </c>
+      <c r="R13">
+        <v>1</v>
+      </c>
+      <c r="S13">
+        <v>1</v>
+      </c>
+      <c r="T13">
+        <v>1</v>
+      </c>
+      <c r="U13">
+        <v>1</v>
+      </c>
+      <c r="V13">
+        <v>1</v>
+      </c>
+      <c r="W13">
+        <v>1</v>
+      </c>
+      <c r="X13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>21</v>
       </c>
@@ -1175,8 +1499,32 @@
       <c r="P14">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="Q14">
+        <v>1</v>
+      </c>
+      <c r="R14">
+        <v>1</v>
+      </c>
+      <c r="S14">
+        <v>1</v>
+      </c>
+      <c r="T14">
+        <v>1</v>
+      </c>
+      <c r="U14">
+        <v>1</v>
+      </c>
+      <c r="V14">
+        <v>1</v>
+      </c>
+      <c r="W14">
+        <v>1</v>
+      </c>
+      <c r="X14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>21</v>
       </c>
@@ -1225,8 +1573,32 @@
       <c r="P15">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="Q15">
+        <v>1</v>
+      </c>
+      <c r="R15">
+        <v>1</v>
+      </c>
+      <c r="S15">
+        <v>1</v>
+      </c>
+      <c r="T15">
+        <v>1</v>
+      </c>
+      <c r="U15">
+        <v>1</v>
+      </c>
+      <c r="V15">
+        <v>1</v>
+      </c>
+      <c r="W15">
+        <v>1</v>
+      </c>
+      <c r="X15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>21</v>
       </c>
@@ -1275,8 +1647,32 @@
       <c r="P16">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q16">
+        <v>1</v>
+      </c>
+      <c r="R16">
+        <v>1</v>
+      </c>
+      <c r="S16">
+        <v>1</v>
+      </c>
+      <c r="T16">
+        <v>1</v>
+      </c>
+      <c r="U16">
+        <v>1</v>
+      </c>
+      <c r="V16">
+        <v>1</v>
+      </c>
+      <c r="W16">
+        <v>0</v>
+      </c>
+      <c r="X16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>21</v>
       </c>
@@ -1325,8 +1721,32 @@
       <c r="P17">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q17">
+        <v>1</v>
+      </c>
+      <c r="R17">
+        <v>1</v>
+      </c>
+      <c r="S17">
+        <v>1</v>
+      </c>
+      <c r="T17">
+        <v>1</v>
+      </c>
+      <c r="U17">
+        <v>1</v>
+      </c>
+      <c r="V17">
+        <v>1</v>
+      </c>
+      <c r="W17">
+        <v>1</v>
+      </c>
+      <c r="X17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>21</v>
       </c>
@@ -1375,8 +1795,32 @@
       <c r="P18">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q18">
+        <v>1</v>
+      </c>
+      <c r="R18">
+        <v>1</v>
+      </c>
+      <c r="S18">
+        <v>1</v>
+      </c>
+      <c r="T18">
+        <v>1</v>
+      </c>
+      <c r="U18">
+        <v>1</v>
+      </c>
+      <c r="V18">
+        <v>1</v>
+      </c>
+      <c r="W18">
+        <v>1</v>
+      </c>
+      <c r="X18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>21</v>
       </c>
@@ -1425,8 +1869,32 @@
       <c r="P19">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q19">
+        <v>1</v>
+      </c>
+      <c r="R19">
+        <v>1</v>
+      </c>
+      <c r="S19">
+        <v>1</v>
+      </c>
+      <c r="T19">
+        <v>1</v>
+      </c>
+      <c r="U19">
+        <v>1</v>
+      </c>
+      <c r="V19">
+        <v>1</v>
+      </c>
+      <c r="W19">
+        <v>0</v>
+      </c>
+      <c r="X19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>21</v>
       </c>
@@ -1475,8 +1943,32 @@
       <c r="P20">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q20">
+        <v>1</v>
+      </c>
+      <c r="R20">
+        <v>1</v>
+      </c>
+      <c r="S20">
+        <v>1</v>
+      </c>
+      <c r="T20">
+        <v>1</v>
+      </c>
+      <c r="U20">
+        <v>1</v>
+      </c>
+      <c r="V20">
+        <v>1</v>
+      </c>
+      <c r="W20">
+        <v>1</v>
+      </c>
+      <c r="X20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>21</v>
       </c>
@@ -1525,8 +2017,32 @@
       <c r="P21">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q21">
+        <v>1</v>
+      </c>
+      <c r="R21">
+        <v>1</v>
+      </c>
+      <c r="S21">
+        <v>1</v>
+      </c>
+      <c r="T21">
+        <v>0</v>
+      </c>
+      <c r="U21">
+        <v>0</v>
+      </c>
+      <c r="V21">
+        <v>0</v>
+      </c>
+      <c r="W21">
+        <v>0</v>
+      </c>
+      <c r="X21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -1575,8 +2091,32 @@
       <c r="P22">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q22">
+        <v>1</v>
+      </c>
+      <c r="R22">
+        <v>1</v>
+      </c>
+      <c r="S22">
+        <v>1</v>
+      </c>
+      <c r="T22">
+        <v>1</v>
+      </c>
+      <c r="U22">
+        <v>1</v>
+      </c>
+      <c r="V22">
+        <v>1</v>
+      </c>
+      <c r="W22">
+        <v>1</v>
+      </c>
+      <c r="X22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -1625,8 +2165,32 @@
       <c r="P23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q23">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+      <c r="T23">
+        <v>0</v>
+      </c>
+      <c r="U23">
+        <v>0</v>
+      </c>
+      <c r="V23">
+        <v>0</v>
+      </c>
+      <c r="W23">
+        <v>0</v>
+      </c>
+      <c r="X23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -1675,8 +2239,32 @@
       <c r="P24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q24">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+      <c r="T24">
+        <v>0</v>
+      </c>
+      <c r="U24">
+        <v>0</v>
+      </c>
+      <c r="V24">
+        <v>0</v>
+      </c>
+      <c r="W24">
+        <v>0</v>
+      </c>
+      <c r="X24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>21</v>
       </c>
@@ -1725,8 +2313,32 @@
       <c r="P25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>0</v>
+      </c>
+      <c r="T25">
+        <v>0</v>
+      </c>
+      <c r="U25">
+        <v>0</v>
+      </c>
+      <c r="V25">
+        <v>0</v>
+      </c>
+      <c r="W25">
+        <v>0</v>
+      </c>
+      <c r="X25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>21</v>
       </c>
@@ -1775,8 +2387,32 @@
       <c r="P26">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q26">
+        <v>0</v>
+      </c>
+      <c r="R26">
+        <v>0</v>
+      </c>
+      <c r="S26">
+        <v>0</v>
+      </c>
+      <c r="T26">
+        <v>0</v>
+      </c>
+      <c r="U26">
+        <v>0</v>
+      </c>
+      <c r="V26">
+        <v>0</v>
+      </c>
+      <c r="W26">
+        <v>0</v>
+      </c>
+      <c r="X26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>21</v>
       </c>
@@ -1825,8 +2461,32 @@
       <c r="P27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q27">
+        <v>0</v>
+      </c>
+      <c r="R27">
+        <v>0</v>
+      </c>
+      <c r="S27">
+        <v>0</v>
+      </c>
+      <c r="T27">
+        <v>0</v>
+      </c>
+      <c r="U27">
+        <v>0</v>
+      </c>
+      <c r="V27">
+        <v>0</v>
+      </c>
+      <c r="W27">
+        <v>0</v>
+      </c>
+      <c r="X27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>21</v>
       </c>
@@ -1875,8 +2535,32 @@
       <c r="P28">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q28">
+        <v>0</v>
+      </c>
+      <c r="R28">
+        <v>0</v>
+      </c>
+      <c r="S28">
+        <v>0</v>
+      </c>
+      <c r="T28">
+        <v>0</v>
+      </c>
+      <c r="U28">
+        <v>0</v>
+      </c>
+      <c r="V28">
+        <v>0</v>
+      </c>
+      <c r="W28">
+        <v>0</v>
+      </c>
+      <c r="X28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>22</v>
       </c>
@@ -1919,8 +2603,32 @@
       <c r="N29">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="O29">
+        <v>1</v>
+      </c>
+      <c r="P29">
+        <v>1</v>
+      </c>
+      <c r="Q29">
+        <v>1</v>
+      </c>
+      <c r="R29">
+        <v>1</v>
+      </c>
+      <c r="S29">
+        <v>1</v>
+      </c>
+      <c r="T29">
+        <v>1</v>
+      </c>
+      <c r="U29">
+        <v>1</v>
+      </c>
+      <c r="V29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>22</v>
       </c>
@@ -1963,8 +2671,32 @@
       <c r="N30">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="O30">
+        <v>1</v>
+      </c>
+      <c r="P30">
+        <v>1</v>
+      </c>
+      <c r="Q30">
+        <v>1</v>
+      </c>
+      <c r="R30">
+        <v>1</v>
+      </c>
+      <c r="S30">
+        <v>1</v>
+      </c>
+      <c r="T30">
+        <v>1</v>
+      </c>
+      <c r="U30">
+        <v>1</v>
+      </c>
+      <c r="V30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>22</v>
       </c>
@@ -2007,8 +2739,32 @@
       <c r="N31">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="O31">
+        <v>1</v>
+      </c>
+      <c r="P31">
+        <v>1</v>
+      </c>
+      <c r="Q31">
+        <v>1</v>
+      </c>
+      <c r="R31">
+        <v>1</v>
+      </c>
+      <c r="S31">
+        <v>1</v>
+      </c>
+      <c r="T31">
+        <v>1</v>
+      </c>
+      <c r="U31">
+        <v>1</v>
+      </c>
+      <c r="V31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>22</v>
       </c>
@@ -2051,8 +2807,32 @@
       <c r="N32">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O32">
+        <v>1</v>
+      </c>
+      <c r="P32">
+        <v>1</v>
+      </c>
+      <c r="Q32">
+        <v>1</v>
+      </c>
+      <c r="R32">
+        <v>1</v>
+      </c>
+      <c r="S32">
+        <v>1</v>
+      </c>
+      <c r="T32">
+        <v>1</v>
+      </c>
+      <c r="U32">
+        <v>1</v>
+      </c>
+      <c r="V32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>22</v>
       </c>
@@ -2095,8 +2875,32 @@
       <c r="N33">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O33">
+        <v>0</v>
+      </c>
+      <c r="P33">
+        <v>0</v>
+      </c>
+      <c r="Q33">
+        <v>0</v>
+      </c>
+      <c r="R33">
+        <v>0</v>
+      </c>
+      <c r="S33">
+        <v>0</v>
+      </c>
+      <c r="T33">
+        <v>0</v>
+      </c>
+      <c r="U33">
+        <v>0</v>
+      </c>
+      <c r="V33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>22</v>
       </c>
@@ -2139,8 +2943,32 @@
       <c r="N34">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O34">
+        <v>1</v>
+      </c>
+      <c r="P34">
+        <v>1</v>
+      </c>
+      <c r="Q34">
+        <v>1</v>
+      </c>
+      <c r="R34">
+        <v>1</v>
+      </c>
+      <c r="S34">
+        <v>1</v>
+      </c>
+      <c r="T34">
+        <v>1</v>
+      </c>
+      <c r="U34">
+        <v>1</v>
+      </c>
+      <c r="V34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>22</v>
       </c>
@@ -2183,8 +3011,32 @@
       <c r="N35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O35">
+        <v>0</v>
+      </c>
+      <c r="P35">
+        <v>0</v>
+      </c>
+      <c r="Q35">
+        <v>0</v>
+      </c>
+      <c r="R35">
+        <v>0</v>
+      </c>
+      <c r="S35">
+        <v>0</v>
+      </c>
+      <c r="T35">
+        <v>0</v>
+      </c>
+      <c r="U35">
+        <v>0</v>
+      </c>
+      <c r="V35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>22</v>
       </c>
@@ -2225,6 +3077,30 @@
         <v>0</v>
       </c>
       <c r="N36">
+        <v>0</v>
+      </c>
+      <c r="O36">
+        <v>0</v>
+      </c>
+      <c r="P36">
+        <v>0</v>
+      </c>
+      <c r="Q36">
+        <v>0</v>
+      </c>
+      <c r="R36">
+        <v>0</v>
+      </c>
+      <c r="S36">
+        <v>0</v>
+      </c>
+      <c r="T36">
+        <v>0</v>
+      </c>
+      <c r="U36">
+        <v>0</v>
+      </c>
+      <c r="V36">
         <v>0</v>
       </c>
     </row>

--- a/Data/raw_surv_data.xlsx
+++ b/Data/raw_surv_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matthewsasaki/Desktop/Lab_Projects/01_Small_projects/freshwater_choice/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B84B887-EEDD-4E48-BF46-2726CE176E56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76FF88A3-FAF5-9545-ACB1-9772555E26FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="15120" windowHeight="18880" xr2:uid="{8320B239-817B-2D40-83A6-DE83587F0EE7}"/>
   </bookViews>
@@ -482,8 +482,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8949BF81-7D7A-4643-97D8-DBE58FB94094}">
   <dimension ref="A1:X36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R1" zoomScale="84" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19:XFD19"/>
+    <sheetView tabSelected="1" topLeftCell="O1" zoomScale="84" workbookViewId="0">
+      <selection activeCell="Y8" sqref="Y8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2627,6 +2627,12 @@
       <c r="V29">
         <v>1</v>
       </c>
+      <c r="W29">
+        <v>1</v>
+      </c>
+      <c r="X29">
+        <v>1</v>
+      </c>
     </row>
     <row r="30" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
@@ -2695,6 +2701,12 @@
       <c r="V30">
         <v>1</v>
       </c>
+      <c r="W30">
+        <v>1</v>
+      </c>
+      <c r="X30">
+        <v>1</v>
+      </c>
     </row>
     <row r="31" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
@@ -2763,6 +2775,12 @@
       <c r="V31">
         <v>1</v>
       </c>
+      <c r="W31">
+        <v>1</v>
+      </c>
+      <c r="X31">
+        <v>1</v>
+      </c>
     </row>
     <row r="32" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
@@ -2831,8 +2849,14 @@
       <c r="V32">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W32">
+        <v>0</v>
+      </c>
+      <c r="X32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>22</v>
       </c>
@@ -2899,8 +2923,14 @@
       <c r="V33">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W33">
+        <v>0</v>
+      </c>
+      <c r="X33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>22</v>
       </c>
@@ -2967,8 +2997,14 @@
       <c r="V34">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W34">
+        <v>1</v>
+      </c>
+      <c r="X34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>22</v>
       </c>
@@ -3035,8 +3071,14 @@
       <c r="V35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W35">
+        <v>0</v>
+      </c>
+      <c r="X35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>22</v>
       </c>
@@ -3101,6 +3143,12 @@
         <v>0</v>
       </c>
       <c r="V36">
+        <v>0</v>
+      </c>
+      <c r="W36">
+        <v>0</v>
+      </c>
+      <c r="X36">
         <v>0</v>
       </c>
     </row>
